--- a/artfynd/A 25286-2023.xlsx
+++ b/artfynd/A 25286-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,6 +910,1023 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>111936780</v>
+      </c>
+      <c r="B4" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>storhöjden hökvattnet, Jmt</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>489952.4478856339</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7088557.491409383</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Laxsjö</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>111936779</v>
+      </c>
+      <c r="B5" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>storhöjden hökvattnet, Jmt</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>490008.0871105825</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7088596.913762442</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Laxsjö</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>111936781</v>
+      </c>
+      <c r="B6" t="n">
+        <v>89793</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4217</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Blodticka</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Meruliopsis taxicola</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Pers.:Fr.) Bondartsev</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>storhöjden hökvattnet, Jmt</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>490314.5888938977</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7088551.949221384</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Laxsjö</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>111936777</v>
+      </c>
+      <c r="B7" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>storhöjden hökvattnet, Jmt</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>490055.5835512968</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7088708.521274347</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Laxsjö</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>111936775</v>
+      </c>
+      <c r="B8" t="n">
+        <v>89419</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1204</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Gränsticka</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Phellopilus nigrolimitatus</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>storhöjden hökvattnet, Jmt</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>490379.7033068824</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7088378.819891299</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Laxsjö</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>111936776</v>
+      </c>
+      <c r="B9" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>storhöjden hökvattnet, Jmt</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>490397.9705776197</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7088444.768114219</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Laxsjö</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>111936774</v>
+      </c>
+      <c r="B10" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>storhöjden hökvattnet, Jmt</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>490378.4700119758</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7088550.872088245</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Laxsjö</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>hack</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>111936767</v>
+      </c>
+      <c r="B11" t="n">
+        <v>90087</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>3298</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Trådticka</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Climacocystis borealis</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>storhöjden hökvattnet, Jmt</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>490377.1611957431</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7088411.830052498</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Laxsjö</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>111936768</v>
+      </c>
+      <c r="B12" t="n">
+        <v>90087</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>3298</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Trådticka</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Climacocystis borealis</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>storhöjden hökvattnet, Jmt</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>490316.6991760527</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7088522.021911296</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Laxsjö</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 25286-2023.xlsx
+++ b/artfynd/A 25286-2023.xlsx
@@ -1136,10 +1136,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111936781</v>
+        <v>111936776</v>
       </c>
       <c r="B6" t="n">
-        <v>89793</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,25 +1148,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4217</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1176,10 +1176,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>490314.5888938977</v>
+        <v>490397.9705776197</v>
       </c>
       <c r="R6" t="n">
-        <v>7088551.949221384</v>
+        <v>7088444.768114219</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1248,10 +1248,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111936777</v>
+        <v>111936768</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1260,25 +1260,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>490055.5835512968</v>
+        <v>490316.6991760527</v>
       </c>
       <c r="R7" t="n">
-        <v>7088708.521274347</v>
+        <v>7088522.021911296</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111936775</v>
+        <v>111936767</v>
       </c>
       <c r="B8" t="n">
-        <v>89419</v>
+        <v>90087</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1372,25 +1372,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1204</v>
+        <v>3298</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1400,10 +1400,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>490379.7033068824</v>
+        <v>490377.1611957431</v>
       </c>
       <c r="R8" t="n">
-        <v>7088378.819891299</v>
+        <v>7088411.830052498</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111936776</v>
+        <v>111936777</v>
       </c>
       <c r="B9" t="n">
         <v>77515</v>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>490397.9705776197</v>
+        <v>490055.5835512968</v>
       </c>
       <c r="R9" t="n">
-        <v>7088444.768114219</v>
+        <v>7088708.521274347</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1705,10 +1705,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936767</v>
+        <v>111936775</v>
       </c>
       <c r="B11" t="n">
-        <v>90087</v>
+        <v>89419</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1717,25 +1717,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3298</v>
+        <v>1204</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1745,10 +1745,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>490377.1611957431</v>
+        <v>490379.7033068824</v>
       </c>
       <c r="R11" t="n">
-        <v>7088411.830052498</v>
+        <v>7088378.819891299</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936768</v>
+        <v>111936781</v>
       </c>
       <c r="B12" t="n">
-        <v>90087</v>
+        <v>89793</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1833,21 +1833,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3298</v>
+        <v>4217</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1857,10 +1857,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>490316.6991760527</v>
+        <v>490314.5888938977</v>
       </c>
       <c r="R12" t="n">
-        <v>7088522.021911296</v>
+        <v>7088551.949221384</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>

--- a/artfynd/A 25286-2023.xlsx
+++ b/artfynd/A 25286-2023.xlsx
@@ -912,7 +912,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111936780</v>
+        <v>111936776</v>
       </c>
       <c r="B4" t="n">
         <v>77515</v>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489952.4478856339</v>
+        <v>490397.9705776197</v>
       </c>
       <c r="R4" t="n">
-        <v>7088557.491409383</v>
+        <v>7088444.768114219</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111936779</v>
+        <v>111936775</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>89419</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,21 +1040,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>490008.0871105825</v>
+        <v>490379.7033068824</v>
       </c>
       <c r="R5" t="n">
-        <v>7088596.913762442</v>
+        <v>7088378.819891299</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111936776</v>
+        <v>111936767</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,25 +1148,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1176,10 +1176,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>490397.9705776197</v>
+        <v>490377.1611957431</v>
       </c>
       <c r="R6" t="n">
-        <v>7088444.768114219</v>
+        <v>7088411.830052498</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1248,10 +1248,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111936768</v>
+        <v>111936774</v>
       </c>
       <c r="B7" t="n">
-        <v>90087</v>
+        <v>56414</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1260,38 +1260,42 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3298</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>storhöjden hökvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>490316.6991760527</v>
+        <v>490378.4700119758</v>
       </c>
       <c r="R7" t="n">
-        <v>7088522.021911296</v>
+        <v>7088550.872088245</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1334,6 +1338,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1360,10 +1369,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111936767</v>
+        <v>111936781</v>
       </c>
       <c r="B8" t="n">
-        <v>90087</v>
+        <v>89793</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1376,21 +1385,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3298</v>
+        <v>4217</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1400,10 +1409,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>490377.1611957431</v>
+        <v>490314.5888938977</v>
       </c>
       <c r="R8" t="n">
-        <v>7088411.830052498</v>
+        <v>7088551.949221384</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1472,7 +1481,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111936777</v>
+        <v>111936779</v>
       </c>
       <c r="B9" t="n">
         <v>77515</v>
@@ -1512,10 +1521,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>490055.5835512968</v>
+        <v>490008.0871105825</v>
       </c>
       <c r="R9" t="n">
-        <v>7088708.521274347</v>
+        <v>7088596.913762442</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1584,10 +1593,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111936774</v>
+        <v>111936768</v>
       </c>
       <c r="B10" t="n">
-        <v>56414</v>
+        <v>90087</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,42 +1605,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100049</v>
+        <v>3298</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>storhöjden hökvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>490378.4700119758</v>
+        <v>490316.6991760527</v>
       </c>
       <c r="R10" t="n">
-        <v>7088550.872088245</v>
+        <v>7088522.021911296</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1674,11 +1679,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1705,10 +1705,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936775</v>
+        <v>111936777</v>
       </c>
       <c r="B11" t="n">
-        <v>89419</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1721,21 +1721,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1745,10 +1745,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>490379.7033068824</v>
+        <v>490055.5835512968</v>
       </c>
       <c r="R11" t="n">
-        <v>7088378.819891299</v>
+        <v>7088708.521274347</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936781</v>
+        <v>111936780</v>
       </c>
       <c r="B12" t="n">
-        <v>89793</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1829,25 +1829,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4217</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1857,10 +1857,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>490314.5888938977</v>
+        <v>489952.4478856339</v>
       </c>
       <c r="R12" t="n">
-        <v>7088551.949221384</v>
+        <v>7088557.491409383</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>

--- a/artfynd/A 25286-2023.xlsx
+++ b/artfynd/A 25286-2023.xlsx
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111936776</v>
+        <v>111936768</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,25 +924,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>490397.9705776197</v>
+        <v>490316.6991760527</v>
       </c>
       <c r="R4" t="n">
-        <v>7088444.768114219</v>
+        <v>7088522.021911296</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111936767</v>
+        <v>111936777</v>
       </c>
       <c r="B6" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,25 +1148,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1176,10 +1176,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>490377.1611957431</v>
+        <v>490055.5835512968</v>
       </c>
       <c r="R6" t="n">
-        <v>7088411.830052498</v>
+        <v>7088708.521274347</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1248,10 +1248,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111936774</v>
+        <v>111936781</v>
       </c>
       <c r="B7" t="n">
-        <v>56414</v>
+        <v>89793</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1260,42 +1260,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>4217</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>storhöjden hökvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>490378.4700119758</v>
+        <v>490314.5888938977</v>
       </c>
       <c r="R7" t="n">
-        <v>7088550.872088245</v>
+        <v>7088551.949221384</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1338,11 +1334,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1369,10 +1360,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111936781</v>
+        <v>111936779</v>
       </c>
       <c r="B8" t="n">
-        <v>89793</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1381,25 +1372,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4217</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1409,10 +1400,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>490314.5888938977</v>
+        <v>490008.0871105825</v>
       </c>
       <c r="R8" t="n">
-        <v>7088551.949221384</v>
+        <v>7088596.913762442</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1481,7 +1472,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111936779</v>
+        <v>111936780</v>
       </c>
       <c r="B9" t="n">
         <v>77515</v>
@@ -1521,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>490008.0871105825</v>
+        <v>489952.4478856339</v>
       </c>
       <c r="R9" t="n">
-        <v>7088596.913762442</v>
+        <v>7088557.491409383</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1593,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111936768</v>
+        <v>111936774</v>
       </c>
       <c r="B10" t="n">
-        <v>90087</v>
+        <v>56414</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1605,38 +1596,42 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3298</v>
+        <v>100049</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>storhöjden hökvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>490316.6991760527</v>
+        <v>490378.4700119758</v>
       </c>
       <c r="R10" t="n">
-        <v>7088522.021911296</v>
+        <v>7088550.872088245</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1679,6 +1674,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1705,7 +1705,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936777</v>
+        <v>111936776</v>
       </c>
       <c r="B11" t="n">
         <v>77515</v>
@@ -1745,10 +1745,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>490055.5835512968</v>
+        <v>490397.9705776197</v>
       </c>
       <c r="R11" t="n">
-        <v>7088708.521274347</v>
+        <v>7088444.768114219</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936780</v>
+        <v>111936767</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1829,25 +1829,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1857,10 +1857,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>489952.4478856339</v>
+        <v>490377.1611957431</v>
       </c>
       <c r="R12" t="n">
-        <v>7088557.491409383</v>
+        <v>7088411.830052498</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>

--- a/artfynd/A 25286-2023.xlsx
+++ b/artfynd/A 25286-2023.xlsx
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111936768</v>
+        <v>111936776</v>
       </c>
       <c r="B4" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,25 +924,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>490316.6991760527</v>
+        <v>490397.9705776197</v>
       </c>
       <c r="R4" t="n">
-        <v>7088522.021911296</v>
+        <v>7088444.768114219</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111936775</v>
+        <v>111936767</v>
       </c>
       <c r="B5" t="n">
-        <v>89419</v>
+        <v>90087</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1036,25 +1036,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1204</v>
+        <v>3298</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>490379.7033068824</v>
+        <v>490377.1611957431</v>
       </c>
       <c r="R5" t="n">
-        <v>7088378.819891299</v>
+        <v>7088411.830052498</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111936777</v>
+        <v>111936779</v>
       </c>
       <c r="B6" t="n">
         <v>77515</v>
@@ -1176,10 +1176,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>490055.5835512968</v>
+        <v>490008.0871105825</v>
       </c>
       <c r="R6" t="n">
-        <v>7088708.521274347</v>
+        <v>7088596.913762442</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1248,10 +1248,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111936781</v>
+        <v>111936775</v>
       </c>
       <c r="B7" t="n">
-        <v>89793</v>
+        <v>89419</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1260,25 +1260,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4217</v>
+        <v>1204</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>490314.5888938977</v>
+        <v>490379.7033068824</v>
       </c>
       <c r="R7" t="n">
-        <v>7088551.949221384</v>
+        <v>7088378.819891299</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111936779</v>
+        <v>111936768</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1372,25 +1372,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1400,10 +1400,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>490008.0871105825</v>
+        <v>490316.6991760527</v>
       </c>
       <c r="R8" t="n">
-        <v>7088596.913762442</v>
+        <v>7088522.021911296</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111936774</v>
+        <v>111936777</v>
       </c>
       <c r="B10" t="n">
-        <v>56414</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1600,38 +1600,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>storhöjden hökvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>490378.4700119758</v>
+        <v>490055.5835512968</v>
       </c>
       <c r="R10" t="n">
-        <v>7088550.872088245</v>
+        <v>7088708.521274347</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1674,11 +1670,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1705,10 +1696,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936776</v>
+        <v>111936774</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>56414</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1721,34 +1712,38 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>storhöjden hökvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>490397.9705776197</v>
+        <v>490378.4700119758</v>
       </c>
       <c r="R11" t="n">
-        <v>7088444.768114219</v>
+        <v>7088550.872088245</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1791,6 +1786,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1817,10 +1817,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936767</v>
+        <v>111936781</v>
       </c>
       <c r="B12" t="n">
-        <v>90087</v>
+        <v>89793</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1833,21 +1833,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3298</v>
+        <v>4217</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1857,10 +1857,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>490377.1611957431</v>
+        <v>490314.5888938977</v>
       </c>
       <c r="R12" t="n">
-        <v>7088411.830052498</v>
+        <v>7088551.949221384</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>

--- a/artfynd/A 25286-2023.xlsx
+++ b/artfynd/A 25286-2023.xlsx
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111936776</v>
+        <v>111936768</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,25 +924,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>490397.9705776197</v>
+        <v>490317</v>
       </c>
       <c r="R4" t="n">
-        <v>7088444.768114219</v>
+        <v>7088522</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -985,19 +985,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1024,10 +1014,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111936767</v>
+        <v>111936777</v>
       </c>
       <c r="B5" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1036,25 +1026,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1064,10 +1054,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>490377.1611957431</v>
+        <v>490056</v>
       </c>
       <c r="R5" t="n">
-        <v>7088411.830052498</v>
+        <v>7088709</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1097,19 +1087,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1136,10 +1116,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111936779</v>
+        <v>111936775</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>89419</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1152,21 +1132,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1176,10 +1156,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>490008.0871105825</v>
+        <v>490380</v>
       </c>
       <c r="R6" t="n">
-        <v>7088596.913762442</v>
+        <v>7088379</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1209,19 +1189,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1248,10 +1218,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111936775</v>
+        <v>111936776</v>
       </c>
       <c r="B7" t="n">
-        <v>89419</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1264,21 +1234,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1288,10 +1258,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>490379.7033068824</v>
+        <v>490398</v>
       </c>
       <c r="R7" t="n">
-        <v>7088378.819891299</v>
+        <v>7088445</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1321,19 +1291,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1360,10 +1320,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111936768</v>
+        <v>111936779</v>
       </c>
       <c r="B8" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1372,25 +1332,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1400,10 +1360,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>490316.6991760527</v>
+        <v>490008</v>
       </c>
       <c r="R8" t="n">
-        <v>7088522.021911296</v>
+        <v>7088597</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1433,19 +1393,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1512,10 +1462,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>489952.4478856339</v>
+        <v>489952</v>
       </c>
       <c r="R9" t="n">
-        <v>7088557.491409383</v>
+        <v>7088557</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1545,19 +1495,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1584,10 +1524,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111936777</v>
+        <v>111936767</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,25 +1536,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1624,10 +1564,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>490055.5835512968</v>
+        <v>490377</v>
       </c>
       <c r="R10" t="n">
-        <v>7088708.521274347</v>
+        <v>7088412</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1657,19 +1597,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1696,10 +1626,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936774</v>
+        <v>111936781</v>
       </c>
       <c r="B11" t="n">
-        <v>56414</v>
+        <v>89793</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1708,42 +1638,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100049</v>
+        <v>4217</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>storhöjden hökvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>490378.4700119758</v>
+        <v>490315</v>
       </c>
       <c r="R11" t="n">
-        <v>7088550.872088245</v>
+        <v>7088552</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1773,24 +1699,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1817,10 +1728,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936781</v>
+        <v>111936774</v>
       </c>
       <c r="B12" t="n">
-        <v>89793</v>
+        <v>56414</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1829,38 +1740,42 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4217</v>
+        <v>100049</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>storhöjden hökvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>490314.5888938977</v>
+        <v>490378</v>
       </c>
       <c r="R12" t="n">
-        <v>7088551.949221384</v>
+        <v>7088551</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1890,19 +1805,14 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD12" t="b">

--- a/artfynd/A 25286-2023.xlsx
+++ b/artfynd/A 25286-2023.xlsx
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111936768</v>
+        <v>111936776</v>
       </c>
       <c r="B4" t="n">
-        <v>90087</v>
+        <v>77636</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,25 +924,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>490317</v>
+        <v>490398</v>
       </c>
       <c r="R4" t="n">
-        <v>7088522</v>
+        <v>7088445</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1014,10 +1014,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111936777</v>
+        <v>111936780</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1054,10 +1054,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>490056</v>
+        <v>489952</v>
       </c>
       <c r="R5" t="n">
-        <v>7088709</v>
+        <v>7088557</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1116,10 +1116,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111936775</v>
+        <v>111936777</v>
       </c>
       <c r="B6" t="n">
-        <v>89419</v>
+        <v>77636</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1132,21 +1132,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1156,10 +1156,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>490380</v>
+        <v>490056</v>
       </c>
       <c r="R6" t="n">
-        <v>7088379</v>
+        <v>7088709</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1218,10 +1218,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111936776</v>
+        <v>111936768</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>90221</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1230,25 +1230,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1258,10 +1258,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>490398</v>
+        <v>490317</v>
       </c>
       <c r="R7" t="n">
-        <v>7088445</v>
+        <v>7088522</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1320,10 +1320,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111936779</v>
+        <v>111936781</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>89927</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1332,25 +1332,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>4217</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1360,10 +1360,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>490008</v>
+        <v>490315</v>
       </c>
       <c r="R8" t="n">
-        <v>7088597</v>
+        <v>7088552</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111936780</v>
+        <v>111936779</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1462,10 +1462,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>489952</v>
+        <v>490008</v>
       </c>
       <c r="R9" t="n">
-        <v>7088557</v>
+        <v>7088597</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1524,10 +1524,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111936767</v>
+        <v>111936774</v>
       </c>
       <c r="B10" t="n">
-        <v>90087</v>
+        <v>56446</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1536,38 +1536,42 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3298</v>
+        <v>100049</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>storhöjden hökvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>490377</v>
+        <v>490378</v>
       </c>
       <c r="R10" t="n">
-        <v>7088412</v>
+        <v>7088551</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1600,6 +1604,11 @@
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1626,10 +1635,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936781</v>
+        <v>111936767</v>
       </c>
       <c r="B11" t="n">
-        <v>89793</v>
+        <v>90221</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1642,21 +1651,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4217</v>
+        <v>3298</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1666,10 +1675,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>490315</v>
+        <v>490377</v>
       </c>
       <c r="R11" t="n">
-        <v>7088552</v>
+        <v>7088412</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1728,10 +1737,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936774</v>
+        <v>111936775</v>
       </c>
       <c r="B12" t="n">
-        <v>56414</v>
+        <v>89553</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1744,38 +1753,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100049</v>
+        <v>1204</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>storhöjden hökvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>490378</v>
+        <v>490380</v>
       </c>
       <c r="R12" t="n">
-        <v>7088551</v>
+        <v>7088379</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1808,11 +1813,6 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD12" t="b">

--- a/artfynd/A 25286-2023.xlsx
+++ b/artfynd/A 25286-2023.xlsx
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111936776</v>
+        <v>111936777</v>
       </c>
       <c r="B4" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>490398</v>
+        <v>490056</v>
       </c>
       <c r="R4" t="n">
-        <v>7088445</v>
+        <v>7088709</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1014,10 +1014,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111936780</v>
+        <v>111936768</v>
       </c>
       <c r="B5" t="n">
-        <v>77636</v>
+        <v>90235</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1026,25 +1026,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1054,10 +1054,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489952</v>
+        <v>490317</v>
       </c>
       <c r="R5" t="n">
-        <v>7088557</v>
+        <v>7088522</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1116,10 +1116,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111936777</v>
+        <v>111936775</v>
       </c>
       <c r="B6" t="n">
-        <v>77636</v>
+        <v>89567</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1132,21 +1132,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1156,10 +1156,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>490056</v>
+        <v>490380</v>
       </c>
       <c r="R6" t="n">
-        <v>7088709</v>
+        <v>7088379</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1218,10 +1218,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111936768</v>
+        <v>111936780</v>
       </c>
       <c r="B7" t="n">
-        <v>90221</v>
+        <v>77650</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1230,25 +1230,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1258,10 +1258,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>490317</v>
+        <v>489952</v>
       </c>
       <c r="R7" t="n">
-        <v>7088522</v>
+        <v>7088557</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1320,10 +1320,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111936781</v>
+        <v>111936774</v>
       </c>
       <c r="B8" t="n">
-        <v>89927</v>
+        <v>56446</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1332,38 +1332,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4217</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>storhöjden hökvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>490315</v>
+        <v>490378</v>
       </c>
       <c r="R8" t="n">
-        <v>7088552</v>
+        <v>7088551</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1396,6 +1400,11 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1422,10 +1431,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111936779</v>
+        <v>111936781</v>
       </c>
       <c r="B9" t="n">
-        <v>77636</v>
+        <v>89941</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1434,25 +1443,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>4217</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1462,10 +1471,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>490008</v>
+        <v>490315</v>
       </c>
       <c r="R9" t="n">
-        <v>7088597</v>
+        <v>7088552</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1524,10 +1533,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111936774</v>
+        <v>111936779</v>
       </c>
       <c r="B10" t="n">
-        <v>56446</v>
+        <v>77650</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1540,38 +1549,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>storhöjden hökvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>490378</v>
+        <v>490008</v>
       </c>
       <c r="R10" t="n">
-        <v>7088551</v>
+        <v>7088597</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1604,11 +1609,6 @@
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1635,10 +1635,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936767</v>
+        <v>111936776</v>
       </c>
       <c r="B11" t="n">
-        <v>90221</v>
+        <v>77650</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1647,25 +1647,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>490377</v>
+        <v>490398</v>
       </c>
       <c r="R11" t="n">
-        <v>7088412</v>
+        <v>7088445</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1737,10 +1737,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936775</v>
+        <v>111936767</v>
       </c>
       <c r="B12" t="n">
-        <v>89553</v>
+        <v>90235</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1749,25 +1749,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1204</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>490380</v>
+        <v>490377</v>
       </c>
       <c r="R12" t="n">
-        <v>7088379</v>
+        <v>7088412</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>

--- a/artfynd/A 25286-2023.xlsx
+++ b/artfynd/A 25286-2023.xlsx
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111936777</v>
+        <v>111936768</v>
       </c>
       <c r="B4" t="n">
-        <v>77650</v>
+        <v>90235</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,25 +924,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>490056</v>
+        <v>490317</v>
       </c>
       <c r="R4" t="n">
-        <v>7088709</v>
+        <v>7088522</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1014,10 +1014,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111936768</v>
+        <v>111936779</v>
       </c>
       <c r="B5" t="n">
-        <v>90235</v>
+        <v>77650</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1026,25 +1026,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1054,10 +1054,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>490317</v>
+        <v>490008</v>
       </c>
       <c r="R5" t="n">
-        <v>7088522</v>
+        <v>7088597</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1116,10 +1116,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111936775</v>
+        <v>111936781</v>
       </c>
       <c r="B6" t="n">
-        <v>89567</v>
+        <v>89941</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1128,25 +1128,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1204</v>
+        <v>4217</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1156,10 +1156,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>490380</v>
+        <v>490315</v>
       </c>
       <c r="R6" t="n">
-        <v>7088379</v>
+        <v>7088552</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1320,10 +1320,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111936774</v>
+        <v>111936775</v>
       </c>
       <c r="B8" t="n">
-        <v>56446</v>
+        <v>89567</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1336,38 +1336,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100049</v>
+        <v>1204</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>storhöjden hökvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>490378</v>
+        <v>490380</v>
       </c>
       <c r="R8" t="n">
-        <v>7088551</v>
+        <v>7088379</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1400,11 +1396,6 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1431,10 +1422,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111936781</v>
+        <v>111936767</v>
       </c>
       <c r="B9" t="n">
-        <v>89941</v>
+        <v>90235</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1447,21 +1438,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4217</v>
+        <v>3298</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1471,10 +1462,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>490315</v>
+        <v>490377</v>
       </c>
       <c r="R9" t="n">
-        <v>7088552</v>
+        <v>7088412</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1533,10 +1524,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111936779</v>
+        <v>111936774</v>
       </c>
       <c r="B10" t="n">
-        <v>77650</v>
+        <v>56446</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1549,34 +1540,38 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>storhöjden hökvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>490008</v>
+        <v>490378</v>
       </c>
       <c r="R10" t="n">
-        <v>7088597</v>
+        <v>7088551</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1609,6 +1604,11 @@
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1635,7 +1635,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936776</v>
+        <v>111936777</v>
       </c>
       <c r="B11" t="n">
         <v>77650</v>
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>490398</v>
+        <v>490056</v>
       </c>
       <c r="R11" t="n">
-        <v>7088445</v>
+        <v>7088709</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1737,10 +1737,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936767</v>
+        <v>111936776</v>
       </c>
       <c r="B12" t="n">
-        <v>90235</v>
+        <v>77650</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1749,25 +1749,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>490377</v>
+        <v>490398</v>
       </c>
       <c r="R12" t="n">
-        <v>7088412</v>
+        <v>7088445</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
